--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ojas Gupta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ojas Gupta\Desktop\JAVA\placementQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554761E1-3A03-4BD6-AAD7-E2B771F0BE12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA319078-3981-4D5D-BF8C-44D6E56BFC37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Topic:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>Questions by Ojas Gupta:</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1861,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1902,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1913,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ojas Gupta\Desktop\JAVA\placementQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA319078-3981-4D5D-BF8C-44D6E56BFC37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23277D36-F853-488C-82FF-DFE2A110E96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1938,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1949,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ojas Gupta\Desktop\JAVA\placementQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23277D36-F853-488C-82FF-DFE2A110E96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01884C9A-83DC-4B55-B389-E0EAE801B270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Topic:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>YES ( Use hashing to store integers)</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1960,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ojas Gupta\Desktop\JAVA\placementQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01884C9A-83DC-4B55-B389-E0EAE801B270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736009C5-67E0-483C-BE5A-2FFA2EA50BC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t>Topic:</t>
   </si>
@@ -1420,9 +1420,6 @@
   </si>
   <si>
     <t>Power Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
     <t>Questions by Ojas Gupta:</t>
@@ -1863,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1876,13 +1873,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="10" t="s">
-        <v>463</v>
-      </c>
+      <c r="B2" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="2" t="s">
@@ -1908,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1919,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1930,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1941,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1952,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1963,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1974,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -7381,7 +7376,6 @@
     <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
     <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
